--- a/DOWNLOADS/EDITAIS/U_154039_E_903012025/U_154039_E_903012025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_154039_E_903012025/U_154039_E_903012025_master.xlsx
@@ -325,133 +325,133 @@
     <t>Aparelho Ar Condicionado Tipo: Split, Capacidade Refrigeração: 9.000 BTU, Tensão: 220 V, Características Adicionais 1: Controle Remoto Sem Fio</t>
   </si>
   <si>
-    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 12.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto /Display Digital /Timer /Selo Procel</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 18.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto /Display Digital /Timer /Selo Procel</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 24.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto /Display Digital /Timer /Selo Procel</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 30.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto /Display Digital /Timer /Selo Procel</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Tipo: Split, Capacidade Refrigeração: 60.000 BTU, Tensão: 220 V, Frequência: 60 HZ, Características Adicionais 1: Ciclo Frio, Selo Procel, Controle Remoto Sem Fio, modelo inverter, gás R410</t>
-  </si>
-  <si>
-    <t>Bomba Hidráulica Tipo Motor: Trifásico, Tensão Alimentação: 220 V, Potência: 3 CV, Aplicação: Submersa, Características adicionais: tipo palito</t>
-  </si>
-  <si>
-    <t>Cadeira Escritório Material Estrutura: Tubo Aço, Material Revestimento Assento E Encosto: Tecido 100% Poliéster, Material Encosto: Espuma Poliuretano Injetado, Tipo Base: Giratória /Regulagem Altura Pistão Gás, Tipo Encosto: Alto, Apoio Braço: Com Braços, Cor: Preta</t>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 12.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto / Display Digital / Timer / Selo Procel</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 18.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto / Display Digital / Timer / Selo Procel</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 24.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto / Display Digital / Timer / Selo Procel</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 30.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto / Display Digital / Timer / Selo Procel</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Capacidade Refrigeração: 60.000 BTU, Tensão: 220 V, Frequência: 60 HZ, Características Adicionais 1: Ciclo Frio, Selo Procel, Controle Remoto Sem Fio</t>
+  </si>
+  <si>
+    <t>Bomba Hidráulica Tipo Motor: Trifásico, Tensão Alimentação: 220 V, Potência: 3 CV, Aplicação: Submersa</t>
+  </si>
+  <si>
+    <t>Cadeira Escritório Material Estrutura: Tubo Aço, Material Revestimento Assento e Encosto: Tecido 100% Poliéster, Material Encosto: Espuma Poliuretano Injetado, Tipo Base: Giratória / Regulagem Altura Pistão Gás, Tipo Encosto: Alto, Apoio Braço: Com Braços, Cor: Preta</t>
   </si>
   <si>
     <t>Mesa Escritório Material Estrutura: Tubo Metálico, Material Tampo: Aglomerado, Revestimento Tampo: Laminado Fenólico Melamínico, Cor Tampo: Cinza, Quantidade Gavetas: 3 UN, Largura: 1,50 M, Profundidade: 0,75 M, Altura: 0,74 M, Cor Estrutura: Preta, Acabamento Escrutura: Pintado, Tipo Gavetas: Com Chave</t>
   </si>
   <si>
-    <t>Poltrona Auditório Estrutura: Aço, Quantidade Assentos: 1 UN, Tipo Assentos: Fixo, Revestimento Assento E Encosto: Courvin, Material Estrutura: Aço, Cor Revestimento: Preta, Material Assento/Encosto: Espuma Laminada, Largura: 830 MM, Profundidade: 670 MM, Altura: 750 M</t>
-  </si>
-  <si>
-    <t>Cadeira Empilhável Material Estrutura: Tubo Aço, Cor: Preta, Material Assento/Encosto: Polipropileno, Características Adicionais: Sem Braço, Altura: 80 CM, Profundidade: 55 C</t>
-  </si>
-  <si>
-    <t>Escada Material: Alumínio, Tipo: Dobrável, Quantidade Degraus: 7 UN, Características Adicionais: Pés Antiderrapantes, Trava De Segurança, Capacidade: 120 K</t>
-  </si>
-  <si>
-    <t>Barraca / Barraca Acampamento Tipo: Tenda, Material Armação: Metalon Galvanizado, Largura: 3 M, Comprimento: 3 M, Tratamento Superficial: Impermeabilizado, Aplicação: Abrigo /Cobertura De Eventos, Características Adicionais: Conforme Modelo, Material: Lona Pvc, Altura entre 2 e 3 metros, cor azul ou verde, preferencialmente</t>
-  </si>
-  <si>
-    <t>Mesa Plástica Material: Plástico, Formato: Quadrado, Cor: Branca, Comprimento: 85 CM, Largura: 85 CM, Aplicação: Atividades Diversas. Acompanha 04 cadeiras brancas de plástico resistente</t>
-  </si>
-  <si>
-    <t>Mesa Material Estrutura: Madeira Aglomerada, Material Tampo: Madeira Aglomerada, Altura: 74 CM, Formato Tampo: Redondo, Diâmetro Tampo: 1,10 M, Características Adicionais: Pés Em "X"</t>
-  </si>
-  <si>
-    <t>Higrômetro Tipo: De Referência, Tipo Sensor: Duplo Estágio, Precisão Humidade: 0,45% °C, Precisão Temperatura: ± 0,10 °C, Ponto De Orvalho: ± 0,15 °C, Temperatura De Trabalho: 20 A 50 °</t>
-  </si>
-  <si>
-    <t>Purificador Ar Tipo Equipamento: Portátil, Velocidade Operação: Baixa/Média E Alta, Capacidade Purificação: 99,97 M2, Voltagem: 127</t>
+    <t>Poltrona Auditório Estrutura: Aço, Quantidade Assentos: 1 UN, Tipo Assentos: Fixo, Revestimento Assento e Encosto: Courvin, Material Estrutura: Aço, Cor Revestimento: Preta, Material Assento/Encosto: Espuma Laminada, Largura: 830 MM, Profundidade: 670 MM, Altura: 750 MM</t>
+  </si>
+  <si>
+    <t>Cadeira Empilhável Material Estrutura: Tubo Aço, Cor: Preta, Material Assento/Encosto: Polipropileno, Características Adicionais: Sem Braço, Altura: 80 CM, Profundidade: 55 CM</t>
+  </si>
+  <si>
+    <t>Escada Material: Alumínio, Tipo: Dobrável, Quantidade Degraus: 7 UN, Características Adicionais: Pés Antiderrapantes, Trava De Segurança, Capacidade: 120KG</t>
+  </si>
+  <si>
+    <t>Barraca Acampamento Tipo: Tenda, Material Armação: Metalon Galvanizado, Largura: 3 M, Comprimento: 3 M, Tratamento Superficial: Impermeabilizado, Aplicação: Abrigo / Cobertura De Eventos, Características Adicionais: Conforme Modelo, Material: Lona Pvc</t>
+  </si>
+  <si>
+    <t>Mesa Plástica Material: Plástico, Formato: Quadrado, Cor: Branca, Comprimento: 85 CM, Largura: 85 CM, Aplicação: Atividades Diversas</t>
+  </si>
+  <si>
+    <t>Mesa Material Estrutura: Madeira Aglomerada, Material Tampo: Madeira Aglomerada, Altura: 74 CM, Formato Tampo: Redondo, Diâmetro Tampo: 1,10 M, Características Adicionais: Pés Em X</t>
+  </si>
+  <si>
+    <t>Higrômetro Tipo: De Referência, Tipo Sensor: Duplo Estágio, Precisão Humidade: 0,45 C, Precisão Temperatura: 0,10 C, Ponto De Orvalho: 0,15 C, Temperatura De Trabalho: 20 A 50 C</t>
+  </si>
+  <si>
+    <t>Purificador Ar Tipo Equipamento: Portátil, Velocidade Operação: Baixa/Média e Alta, Capacidade Purificação: 99,97 M2, Voltagem: 127 V</t>
   </si>
   <si>
     <t>Desumidificador Capacidade: Ambiente Com 500 M3, Potência Compressor: 290 W, Coletor: 3,8 L, Voltagem: 110/220 V, Aplicação: Controle De Temperatura E Umidade, Características Adicionais: Painel Digital</t>
   </si>
   <si>
-    <t>Fragmentadora Papel Material: Metal, Capacidade Fragmentação: no mínimo 20 FL, Tensão Motor: 110/220 V, Dimensões Picote: 04 X 40 MM, Capacidade Lixeira: no mínimo 80 L, Potência: 500 W, Nível Ruído: Menor Que 65 D</t>
+    <t>Fragmentadora Papel Material: Metal, Capacidade Fragmentação: 20 FL, Tensão Motor: 110/220 V, Dimensões Picote: 04 X 40 MM, Capacidade Lixeira: 80 L, Potência: 500 W, Nível Ruído: Menor Que 65 DB</t>
   </si>
   <si>
     <t>Mesa Microcomputador Material Estrutura: Tubo Metálico, Material Tampo: Aglomerado, Revestimento Tampo: Laminado Melamínico, Posição Base Teclado: Central, Cor: Cinza, Largura: 1 M, Profundidade: 0,60 M, Altura: 0,70 M, Características Adicionais: Teclado Central Regulável</t>
   </si>
   <si>
-    <t>Bebedouro Água Tipo: Industrial, Características Adicionais: 4 Torneiras Latão Cromado, Voltagem: 220 V, Material Gabinete: Aço Inox E Poliuretano Injetado, Capacidade Água: 120 L, Material Corpo: Aço Inoxidável, Vazão: 120 L/</t>
-  </si>
-  <si>
-    <t>Veículos Teleguiados Tipo: Aeronave Remotamente Pilotada (Drone), Quantidade Motores: 4 Motores, Tamanho Diagonal: 350 MM, Velocidade Ascensão Vertical: 20 M /S, Peso Máximo: 1.300 G, Características Adicionais: Câmera, Controle Remoto, Detector Obstáculos, Esta</t>
-  </si>
-  <si>
-    <t>Mesa Tênis De Mesa / Futmesa Material Tampo: Mdf, Material Estrutura: Tubo De Aço, Tipo: Dobrável, Acabamento Tampo: Pintado, Acabamento Estrutura: Pintura, Espessura Tampo: 18 MM, Cor: Azul, Características Opcionais: Com Medidas Oficiais Padrão Ittf (International Ta, Características Adicionais: Com Rodízios, Permite O Uso Como Paredão Para Trei</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia Tipo Lâmpada: Diodo Laser, Voltagem: 100 A 240 V, Frequência: 50/60 HZ, Quantidade Entrada Rgb: 2 UN, Quantidade Entradas Vídeo: Mínimo 5 UN, Tipo Zoom: Digital /Optico, Tipo: Teto E Mesa, Luminosidade Mínima: 9.000 LM, Tipo Projeção: Frontal E Teto, Tipo Tecnologia: Dlp, Resolução Mínima: 640 X 400 DPI, Resolução: 1920 X 1200, Tipo Controle: Manual E Remoto</t>
+    <t>Bebedouro Água Tipo: Industrial, Características Adicionais: 4 Torneiras Latão Cromado, Voltagem: 220 V, Material Gabinete: Aço Inox e Poliuretano Injetado, Capacidade Água: 120 L, Material Corpo: Aço Inoxidável, Vazão: 120 L/H</t>
+  </si>
+  <si>
+    <t>Aeronaves Teleguiadas Tipo: Aeronave Remotamente Pilotada (Drone), Quantidade Motores: 4 Motores, Tamanho Diagonal: 350 MM, Velocidade Ascensão Vertical: 20 M/S, Peso Máximo: 1.300 G, Características Adicionais: Câmera, Controle Remoto, Detector Obstáculos, Esta</t>
+  </si>
+  <si>
+    <t>Mesa Tênis de Mesa / Futmesa Material Tampo: MDF, Material Estrutura: Tubo De Aço, Tipo: Dobrável, Acabamento Tampo: Pintado, Acabamento Estrutura: Pintura, Espessura Tampo: 18 MM, Cor: Azul, Características Opcionais: Com Medidas Oficiais Padrão Ittf (International Ta..., Características Adicionais: Com Rodízios, Permite O Uso Como Paredão Para Trei</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Tipo Lâmpada: Diodo Laser, Voltagem: 100 A 240 V, Frequência: 50/60 HZ, Quantidade Entrada Rgb: 2 UN, Quantidade Entradas Vídeo: Mínimo 5 UN, Tipo Zoom: Digital/Óptico, Tipo: Teto E Mesa, Luminosidade Mínima: 9.000 LM, Tipo Projeção: Frontal E Teto, Tipo Tecnologia: DLP, Resolução Mínima: 640 X 400 DPI, Resolução: 1920 X 1200, Tipo Controle: Manual E Remoto</t>
   </si>
   <si>
     <t>Quadro Branco Material: Fórmica, Acabamento Superficial Moldura: Alumínio, Cor Moldura: Natural, Finalidade: Lançamento Informações, Largura: 120 CM, Comprimento: 300 CM, Tipo Fixação: Parede, Material Moldura: Alumínio CM, Componentes Adicionais: Suporte Para Apagador E Para Lápis, Material Borda: Alumínio</t>
   </si>
   <si>
-    <t>Roçadeira Agrícola Largura Corte: 1,70 M, Altura Corte: 5 A 20 CM, Tipo Engate: 3 Pontas, Regulagem Corte: Sapatas Laterais E Roda Traseira, Tipo Direção: Hidráulica, Tipo Transmissão: Com Cardãn, Quantidade Facas: 2 U. Compatível com o modelo: Trator Massey Ferguson 4291</t>
-  </si>
-  <si>
-    <t>Intercomunicador Sem Fio Conexão: Wireless, Uso: Intercomunicação De Duas Vias, Alimentação: Bateria De Lítio, Conecção Simultânea: 6. Características Adicionais: - Tecnologia sem fio: Digital no mínimo 2,4 GHz; - Alcance operacional: no mínimo 350m; - Capacidade: Suporte para até 18 transceptores por banda; - Modo Duplex: Full-Duplex com cancelamento de eco; - Latência: 120ms; - Sensibilidade RF: -90 dBm; - Resposta de Frequência: 150 Hz a 7 kHz; - Microfone condensador de eletreto com cancelamento de ruído; - Bateria recarregável de íon-lítio (1050mAh) com autonomia de até 24 horas; - Tempo de recarga: Aproximadamente 2,5 horas; - Temperatura de operação: 0°C a 45°C; - Construção em materiais leves e resistentes (ABS e couro); - Peso: 188g (com baterias).</t>
-  </si>
-  <si>
-    <t>Tripé Material: Alumínio, Altura Máxima: 168,50 CM, Capacidade: 13,50 KG, Tipo Cabeça: Hidráulica, Aplicação: Câmera De Vídeo, Características Adicionais: Faixa De Inclinação: -60° A +90°, Peso Cabeça: 13,50 KG, Altura Mínima: 44,50 C</t>
-  </si>
-  <si>
-    <t>Transmissor Frequência: 2.4 GHZ, Alimentação: Bivolt V, Características Adicionais: Sem Fio, Aplicação: Extensor De Vídeo, Tipo: Transmissor Receptor. Características Adicionais: Quantidade de portas: no mínimo 2, Formatos de entrada compatíveis: HDMI 1.4b ou superior, Resolução máxima de saída: no mínimo 4K, Conectores de entrada: BNC (3G-SDI) ou superior, Conectores de saída: BNC (3G-SDI) ou superior, Alcance de LOS de no mínimo 396 metros</t>
-  </si>
-  <si>
-    <t>Cama Conjugada Material: Madeira, Quantidade Leitos: 2 UN, Acabamento Superficial: Envernizado, Comprimento: 102 CM, Largura: 205 CM, Cor: Madeira Natural, Características Adicionais: Com Escada Lateral E Grade De Proteção, Altura: 168 CM, Tipo: Beliche. Acompanha colchão de mola ensacada e espuma</t>
-  </si>
-  <si>
-    <t>Cabo Extensor Tipo: Extensor Hdmi, Tipo Saída: Hdmi Fêmea X Rj45 Fêmea, Comprimento: no mínimo 60 M, Aplicação: Transmissão De Vídeo À Distância</t>
-  </si>
-  <si>
-    <t>Pulpito Portatil Material: Acrílico, Espessura Do Tampo: 10 MM, Altura: 120 CM, Profundidade: 40 CM, Largura: 50 CM, Características Adicionais: Inteiriço/1 Prateleira/Pés De Apoio</t>
-  </si>
-  <si>
-    <t>Pedestal Microfone Material Base Sustentação: Ferro, Formato Base: Tripé Dobrável, Acabamento Superficial: Pintura Eletrostática, Cor: Preta, Tipo Haste: Articulada Com Suporte, Comprimento Haste: 100 A 200 C</t>
-  </si>
-  <si>
-    <t>Suporte Microfone Material: Alumínio, Tipo: Articulado, Aplicação: Audio, Características Adicionais: Possui Indicador De Microfone Em Funcionamento, Uso: Microfones Até 2 Kg, Cor: Prêto/Prata</t>
-  </si>
-  <si>
-    <t>Mesa Plástica Material: Plástico Resistente, Formato: Retangular, Cor: Diversas, Comprimento: 135 CM, Largura: 70 CM, Aplicação: Atividades Infantil, Altura: 30 CM, Características Adicionais: Conforme Termo De Referência. Acompanha 04 cadeiras coloridas de plástico resistente</t>
-  </si>
-  <si>
-    <t>Refletor Material Corpo: Alumínio, Tipo Lâmpada: Led, Potência Lâmpada: 200 W, Tensão Alimentação: Bivolt, Ângulo De Abertura Da Lente: 120°, Temperatura De Cor: 64.000</t>
-  </si>
-  <si>
-    <t>Conjunto Iluminacao Tipo: Estúdio Fotográfico, Voltagem: Bivolt, Tipo Lâmpada: Led, Potência Lâmpada: 300 W, Características Adicionais: Tripé, Sombrinhas, Rádio E Receptor</t>
-  </si>
-  <si>
-    <t>Microfone Tipo: Lapela Sem Fio, Tipo Receptor: Padrão Rack 19 Polegadas Com 2 Antenas, Características Adicionais: Uhf, Kit De Montagem, Impedância: 200 OHMS, Alcance: Mínimo 100 M, Alimentação Externa Receptor: 110/220 V, Alimentação Receptor: 3 V, Aplicação: Auditório, Material: Corpo De Metal, Cor: Preta, Potência De Saída: Mínima 10 MW, Referência Fabricante: Beyerdinamic Ne 900d, Relação Sinal / Ruido: Menor Que 110 D</t>
-  </si>
-  <si>
-    <t>Microfone Tipo: Sem Fio, Alimentação: 02 Pilhas Aa, Resposta Frequência: 516-558 HZ, Tipo Receptor: 2 Antenas, Características Adicionais: Até 12 Canais Programáveis, Impedância: 40 OHMS, Alcance: 100 M, Alimentação Receptor: 12 Vdc V, Dimensão: 190 X 212 X 43 MM, Padrão: Polar Cardióide, Sensibilidade: 2.1 MV/PA, Material: Metal, Modulação: Banda Larga Fm, Temperatura Operação: -10 A + 55 °</t>
-  </si>
-  <si>
-    <t>Câmera Vídeo Tipo: Ptz, Resolução: 3840 X 2160 Pixels, Resolução Horizontal: 74,10, Zoom Óptico: 24 X, Zoom Digital: 10 X, Características Adicionais: Comandos Via Ip, Rs-422 Ou Rs-232, Dimensões Aproximadas: 162.9 X 204.6 X 170.6 MM, Tensão Nominal: Bivolt</t>
-  </si>
-  <si>
-    <t>Equipamento Wireless Padrão: 802.11 A/B/G/N /Ac, Frequência: 5 - 2,4 GHZ, Aplicação: Conexão Sem Fio De Equipamentos Em Rede. Características Adicionais: Access Point Tecnologia Wi-Fi 4. Ambiente de Instalação: Externo. Interface Fast Ethernet: 10/100 Base-T / RJ45. Pacotes por segundo (PPS): No mínimo 60000. Conexão: Rádio Wi-Fi. Painel direcional integrado de dupla polarização. Antenas MiMo 2x2. Ganho de Antena: No mínimo 16dBi. Azimute 40° e Elevação 18°. Distância máxima: Aproximadamente 6km. Faixa de canais de rádio: 5480-5840MHz. Frequência: 5GHz. Largura de banda: 5/10/20 /40MHz. Potência máxima: Aproximadamente 28dBm. Sensibilidade de recepção: -73 a -93dBm. Padrões Wi-Fi IEEE 802.11 a/n. Taxa de transmissão nominal: Aproximadamente 300Mbps. Throughput TCP efetivo 80Mbps. Modo de operação AP / Cliente. Segurança WEP / WPA/WPA2. Alimentação PoE Passivo 12-24Vdc. Tensão da fonte Entrada: 100-240Vac / Saída 12Vdc /0,5A. Consumo máximo de potência: Aproximadmente 2,8W. Proteção antissurto: Aproximadamente 15kV. Temperatura de operação: -30° a 70°C. Umidade relativa de operação: 0 a 95%. Proteção IP65.</t>
-  </si>
-  <si>
-    <t>Andaime Material: Aço Carbono, Modelo: Tubular Modulado, Acessórios: Sapata Fixa /Painel Horiz/Pranchão /Diagonal/Escada, Tratamento Superficial: Pintura Por Imersão; Tipo H, Quantidade de peças: no mínimo 20, Tamanho Mínimo do Módulo: 1,00x 1,50m</t>
-  </si>
-  <si>
-    <t>Armário Material: Mdf, Tipo: Alto, Quantidade Portas: 2 UN, Tipo Portas: Com Puxadores E Fechadura, Acabamento Superficial: Laminado Melamínico, Cor: Branca, Altura: 2,74 M, Largura: 130 CM, Profundidade: 60 CM, Aplicação: Dormitório</t>
-  </si>
-  <si>
-    <t>Tábua Passar Roupa Material Base: Aglomerado Naval, Espuma Recoberto Tecido Algodão, Comprimento: 0,85 M, Largura: 1,05 M, Características Adicionais: Móvel Mdf Laqueado Branco, Base Retrátil, Com Gave, Profundidade: 0,35</t>
+    <t>Roçadeira Agrícola Largura Corte: 1,70 M, Altura Corte: 5 A 20 CM, Tipo Engate: 3 Pontas, Regulagem Corte: Sapatas Laterais E Roda Traseira, Tipo Direção: Hidráulica, Tipo Transmissão: Com Cartão, Quantidade Facas: 2 UN</t>
+  </si>
+  <si>
+    <t>Intercomunicador Sem Fio Conexão: Wireless, Uso: Intercomunicação De Duas Vias, Alimentação: Bateria De Lítio, Conexão Simultânea: 6</t>
+  </si>
+  <si>
+    <t>Tripé Material: Alumínio, Altura Máxima: 168,50 CM, Capacidade: 13,50 KG, Tipo Cabeça: Hidráulica, Aplicação: Câmera De Vídeo, Características Adicionais: Faixa De Inclinação: -60 A 90, Peso Cabeça: 13,50 KG, Altura Mínima: 44,50 CM</t>
+  </si>
+  <si>
+    <t>Transmissor Frequência: 2.4 GHZ, Alimentação: Bivolt V, Características Adicionais: Sem Fio, Aplicação: Extensor De Vídeo, Tipo: Transmissor Receptor</t>
+  </si>
+  <si>
+    <t>Cama Conjugada Material: Madeira, Quantidade Leitos: 2 UN, Acabamento Superficial: Envernizado, Comprimento: 102 CM, Largura: 205 CM, Cor: Madeira Natural, Características Adicionais: Com Escada Lateral E Grade De Proteção, Altura: 168 CM, Tipo: Beliche</t>
+  </si>
+  <si>
+    <t>Cabo Extensor Tipo: Extensor HDMI, Tipo Saída: HDMI Fêmea X RJ45 Fêmea, Comprimento: 60 M, Aplicação: Transmissão De Vídeo À Distância</t>
+  </si>
+  <si>
+    <t>Pulpito Portátil Material: Acrílico, Espessura Do Tampo: 10 MM, Altura: 120 CM, Profundidade: 40 CM, Largura: 50 CM, Características Adicionais: Inteiriço/1 Prateleira/Pés De Apoio</t>
+  </si>
+  <si>
+    <t>Pedestal Microfone Material Base Sustentação: Ferro, Formato Base: Tripé Dobrável, Acabamento Superficial: Pintura Eletrostática, Cor: Preta, Tipo Haste: Articulada Com Suporte, Comprimento Haste: 100 A 200 CM</t>
+  </si>
+  <si>
+    <t>Suporte Microfone Material: Alumínio, Tipo: Articulado, Aplicação: Áudio, Características Adicionais: Possui Indicador De Microfone Em Funcionamento, Uso: Microfones Até 2 Kg, Cor: Preto/Prata</t>
+  </si>
+  <si>
+    <t>Mesa Plástica Material: Plástico Resistente, Formato: Retangular, Cor: Diversas, Comprimento: 135 CM, Largura: 70 CM, Aplicação: Atividades Infantil, Altura: 30 CM, Características Adicionais: Conforme Termo De Referência</t>
+  </si>
+  <si>
+    <t>Refletor Material Corpo: Alumínio, Tipo Lâmpada: LED, Potência Lâmpada: 200 W, Tensão Alimentação: Bivolt, Ângulo De Abertura Da Lente: 120, Temperatura De Cor: 64.000 K</t>
+  </si>
+  <si>
+    <t>Conjunto Iluminação Tipo: Estúdio Fotográfico, Voltagem: Bivolt, Tipo Lâmpada: LED, Potência Lâmpada: 300 W, Características Adicionais: Tripé, Sombrinhas, Rádio E Receptor</t>
+  </si>
+  <si>
+    <t>Microfone Tipo: Lapela Sem Fio, Tipo Receptor: Padrão Rack 19 Polegadas Com 2 Antenas, Características Adicionais: UHf, Kit De Montagem, Impedância: 200 OHMS, Alcance: Mínimo 100 M, Alimentação Externa Receptor: 110/220 V, Alimentação Receptor: 3 V, Aplicação: Auditório, Material: Corpo De Metal, Cor: Preta, Potência De Saída: Mínima 10 MW, Referência Fabricante: Beyerdinamic Ne 900d, Relação Sinal / Ruido: Menor Que 110 DB</t>
+  </si>
+  <si>
+    <t>Microfone Tipo: Sem Fio, Alimentação: 02 Pilhas Aa, Resposta Frequência: 516-558 HZ, Tipo Receptor: 2 Antenas, Características Adicionais: Até 12 Canais Programáveis, Impedância: 40 OHMS, Alcance: 100 M, Alimentação Receptor: 12 Vdc V, Dimensão: 190 X 212 X 43 MM, Padrão: Polar Cardióide, Sensibilidade: 2.1 MV/PA, Material: Metal, Modulação: Banda Larga FM, Temperatura Operação: -10 A 55 C</t>
+  </si>
+  <si>
+    <t>Câmera Vídeo Tipo: PTZ, Resolução: 3840 X 2160 Pixels, Resolução Horizontal: 74,10, Zoom Óptico: 24 X, Zoom Digital: 10 X, Características Adicionais: Comandos Via IP, RS-422 Ou RS-232, Dimensões Aproximadas: 162.9 X 204.6 X 170.6 MM, Tensão Nominal: Bivolt V</t>
+  </si>
+  <si>
+    <t>Equipamento Wireless Padrão: 802.11 A/B/G/N/Ac, Frequência: 5 - 2,4 GHZ, Aplicação: Conexão Sem Fio De Equipamentos Em Rede</t>
+  </si>
+  <si>
+    <t>Andaime Material: Aço Carbono, Modelo: Tubular Modulado, Acessórios: Sapata Fixa/Painel Horiz/Pranchão/Diagonal/Escada, Tratamento Superficial: Pintura Por Imersão</t>
+  </si>
+  <si>
+    <t>Armário Material: MDF, Tipo: Alto, Quantidade Portas: 2 UN, Tipo Portas: Com Puxadores E Fechadura, Acabamento Superficial: Laminado Melamínico, Cor: Branca, Altura: 2,74 M, Largura: 130 CM, Profundidade: 60 CM, Aplicação: Dormitório</t>
+  </si>
+  <si>
+    <t>Tábua Passar Roupa Material Base: Aglomerado Naval, Espuma Recoberto Tecido Algodão, Comprimento: 0,85 M, Largura: 1,05 M, Características Adicionais: Móvel MDF Laqueado Branco, Base Retrátil, Com Gave, Profundidade: 0,35 M</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1453,7 +1453,7 @@
         <v>1899.91</v>
       </c>
       <c r="F22">
-        <v>9499.550000000001</v>
+        <v>9499.549999999999</v>
       </c>
       <c r="G22" t="s">
         <v>146</v>
